--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4293.757377362983</v>
+        <v>4500.787612253995</v>
       </c>
       <c r="AB2" t="n">
-        <v>5874.908270914757</v>
+        <v>6158.176171822008</v>
       </c>
       <c r="AC2" t="n">
-        <v>5314.215271023976</v>
+        <v>5570.448481037623</v>
       </c>
       <c r="AD2" t="n">
-        <v>4293757.377362983</v>
+        <v>4500787.612253995</v>
       </c>
       <c r="AE2" t="n">
-        <v>5874908.270914757</v>
+        <v>6158176.171822008</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.453460242670602e-07</v>
+        <v>9.303723980433452e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.09309895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5314215.271023976</v>
+        <v>5570448.481037622</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2023.965709525462</v>
+        <v>2161.928912544055</v>
       </c>
       <c r="AB3" t="n">
-        <v>2769.279174837995</v>
+        <v>2958.046515714986</v>
       </c>
       <c r="AC3" t="n">
-        <v>2504.983057099188</v>
+        <v>2675.734707899506</v>
       </c>
       <c r="AD3" t="n">
-        <v>2023965.709525462</v>
+        <v>2161928.912544054</v>
       </c>
       <c r="AE3" t="n">
-        <v>2769279.174837994</v>
+        <v>2958046.515714986</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020864211420144e-06</v>
+        <v>1.471743605353868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.77213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2504983.057099188</v>
+        <v>2675734.707899506</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1637.142206153293</v>
+        <v>1749.290736148558</v>
       </c>
       <c r="AB4" t="n">
-        <v>2240.010192075643</v>
+        <v>2393.456758459121</v>
       </c>
       <c r="AC4" t="n">
-        <v>2026.226763217993</v>
+        <v>2165.02860466944</v>
       </c>
       <c r="AD4" t="n">
-        <v>1637142.206153293</v>
+        <v>1749290.736148558</v>
       </c>
       <c r="AE4" t="n">
-        <v>2240010.192075643</v>
+        <v>2393456.758459121</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.165208099371081e-06</v>
+        <v>1.679839052022706e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.08072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2026226.763217994</v>
+        <v>2165028.604669441</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1463.414891656543</v>
+        <v>1575.392739942665</v>
       </c>
       <c r="AB5" t="n">
-        <v>2002.308816072994</v>
+        <v>2155.521848212076</v>
       </c>
       <c r="AC5" t="n">
-        <v>1811.21127292506</v>
+        <v>1949.801868312629</v>
       </c>
       <c r="AD5" t="n">
-        <v>1463414.891656543</v>
+        <v>1575392.739942665</v>
       </c>
       <c r="AE5" t="n">
-        <v>2002308.816072994</v>
+        <v>2155521.848212076</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.241488148825101e-06</v>
+        <v>1.789809284835411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1811211.27292506</v>
+        <v>1949801.868312629</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1357.761285974437</v>
+        <v>1461.361699520239</v>
       </c>
       <c r="AB6" t="n">
-        <v>1857.748891670617</v>
+        <v>1999.499548011657</v>
       </c>
       <c r="AC6" t="n">
-        <v>1680.447944816518</v>
+        <v>1808.670117464665</v>
       </c>
       <c r="AD6" t="n">
-        <v>1357761.285974437</v>
+        <v>1461361.699520238</v>
       </c>
       <c r="AE6" t="n">
-        <v>1857748.891670618</v>
+        <v>1999499.548011657</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.290505316466914e-06</v>
+        <v>1.860475591110404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.55143229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1680447.944816518</v>
+        <v>1808670.117464665</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1279.718988106467</v>
+        <v>1383.234060797697</v>
       </c>
       <c r="AB7" t="n">
-        <v>1750.967976744473</v>
+        <v>1892.601865963316</v>
       </c>
       <c r="AC7" t="n">
-        <v>1583.85805054297</v>
+        <v>1711.974600159178</v>
       </c>
       <c r="AD7" t="n">
-        <v>1279718.988106467</v>
+        <v>1383234.060797697</v>
       </c>
       <c r="AE7" t="n">
-        <v>1750967.976744473</v>
+        <v>1892601.865963316</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324117088564156e-06</v>
+        <v>1.908932486841829e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.95247395833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1583858.05054297</v>
+        <v>1711974.600159178</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1220.246369337937</v>
+        <v>1323.761442029167</v>
       </c>
       <c r="AB8" t="n">
-        <v>1669.594915998606</v>
+        <v>1811.228805217448</v>
       </c>
       <c r="AC8" t="n">
-        <v>1510.25112050688</v>
+        <v>1638.367670123088</v>
       </c>
       <c r="AD8" t="n">
-        <v>1220246.369337937</v>
+        <v>1323761.442029167</v>
       </c>
       <c r="AE8" t="n">
-        <v>1669594.915998606</v>
+        <v>1811228.805217448</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.350259577973123e-06</v>
+        <v>1.946621183521825e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.509765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1510251.12050688</v>
+        <v>1638367.670123088</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1177.129164565055</v>
+        <v>1272.010958969353</v>
       </c>
       <c r="AB9" t="n">
-        <v>1610.600054231524</v>
+        <v>1740.421511224828</v>
       </c>
       <c r="AC9" t="n">
-        <v>1456.88664554704</v>
+        <v>1574.318124890463</v>
       </c>
       <c r="AD9" t="n">
-        <v>1177129.164565055</v>
+        <v>1272010.958969353</v>
       </c>
       <c r="AE9" t="n">
-        <v>1610600.054231524</v>
+        <v>1740421.511224828</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.366225169719313e-06</v>
+        <v>1.969638208994252e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.24609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1456886.64554704</v>
+        <v>1574318.124890463</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1134.329457194238</v>
+        <v>1229.211251598537</v>
       </c>
       <c r="AB10" t="n">
-        <v>1552.039606416945</v>
+        <v>1681.861063410249</v>
       </c>
       <c r="AC10" t="n">
-        <v>1403.91512468178</v>
+        <v>1521.346604025202</v>
       </c>
       <c r="AD10" t="n">
-        <v>1134329.457194238</v>
+        <v>1229211.251598537</v>
       </c>
       <c r="AE10" t="n">
-        <v>1552039.606416945</v>
+        <v>1681861.06341025</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.379763244591814e-06</v>
+        <v>1.989155569774964e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.02799479166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1403915.12468178</v>
+        <v>1521346.604025202</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1121.447791496422</v>
+        <v>1224.877523333081</v>
       </c>
       <c r="AB11" t="n">
-        <v>1534.414343110211</v>
+        <v>1675.931465206856</v>
       </c>
       <c r="AC11" t="n">
-        <v>1387.971991767828</v>
+        <v>1515.982918352097</v>
       </c>
       <c r="AD11" t="n">
-        <v>1121447.791496422</v>
+        <v>1224877.523333081</v>
       </c>
       <c r="AE11" t="n">
-        <v>1534414.343110211</v>
+        <v>1675931.465206856</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.382004029398296e-06</v>
+        <v>1.992386029490392e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.9921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1387971.991767828</v>
+        <v>1515982.918352097</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1125.822829122878</v>
+        <v>1229.252560959537</v>
       </c>
       <c r="AB12" t="n">
-        <v>1540.400462603767</v>
+        <v>1681.917584700411</v>
       </c>
       <c r="AC12" t="n">
-        <v>1393.38680441849</v>
+        <v>1521.397731002759</v>
       </c>
       <c r="AD12" t="n">
-        <v>1125822.829122878</v>
+        <v>1229252.560959537</v>
       </c>
       <c r="AE12" t="n">
-        <v>1540400.462603766</v>
+        <v>1681917.584700411</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.382004029398296e-06</v>
+        <v>1.992386029490392e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.9921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1393386.80441849</v>
+        <v>1521397.731002759</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2965.75854569522</v>
+        <v>3142.353758641141</v>
       </c>
       <c r="AB2" t="n">
-        <v>4057.881682253242</v>
+        <v>4299.507043436809</v>
       </c>
       <c r="AC2" t="n">
-        <v>3670.603149771549</v>
+        <v>3889.168125607073</v>
       </c>
       <c r="AD2" t="n">
-        <v>2965758.54569522</v>
+        <v>3142353.758641141</v>
       </c>
       <c r="AE2" t="n">
-        <v>4057881.682253242</v>
+        <v>4299507.043436809</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.938391463126135e-07</v>
+        <v>1.16215064680424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.60286458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3670603.149771549</v>
+        <v>3889168.125607073</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1625.034056360674</v>
+        <v>1742.877986130717</v>
       </c>
       <c r="AB3" t="n">
-        <v>2223.443287355513</v>
+        <v>2384.682550974147</v>
       </c>
       <c r="AC3" t="n">
-        <v>2011.240980632555</v>
+        <v>2157.091795232154</v>
       </c>
       <c r="AD3" t="n">
-        <v>1625034.056360674</v>
+        <v>1742877.986130717</v>
       </c>
       <c r="AE3" t="n">
-        <v>2223443.287355513</v>
+        <v>2384682.550974146</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.141548226094267e-06</v>
+        <v>1.671183659153097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.54231770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2011240.980632555</v>
+        <v>2157091.795232154</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1345.239072192627</v>
+        <v>1454.580237553095</v>
       </c>
       <c r="AB4" t="n">
-        <v>1840.615446333263</v>
+        <v>1990.220852571224</v>
       </c>
       <c r="AC4" t="n">
-        <v>1664.949691455219</v>
+        <v>1800.276967694336</v>
       </c>
       <c r="AD4" t="n">
-        <v>1345239.072192627</v>
+        <v>1454580.237553095</v>
       </c>
       <c r="AE4" t="n">
-        <v>1840615.446333263</v>
+        <v>1990220.852571224</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.271649373445902e-06</v>
+        <v>1.861646844606962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.7265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1664949.691455219</v>
+        <v>1800276.967694336</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1213.985343676158</v>
+        <v>1314.823834135602</v>
       </c>
       <c r="AB5" t="n">
-        <v>1661.028304471202</v>
+        <v>1798.99997579804</v>
       </c>
       <c r="AC5" t="n">
-        <v>1502.502094360337</v>
+        <v>1627.305943020199</v>
       </c>
       <c r="AD5" t="n">
-        <v>1213985.343676158</v>
+        <v>1314823.834135602</v>
       </c>
       <c r="AE5" t="n">
-        <v>1661028.304471202</v>
+        <v>1798999.97579804</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339838987425304e-06</v>
+        <v>1.961473874250932e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.466796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1502502.094360336</v>
+        <v>1627305.943020198</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1123.387274399229</v>
+        <v>1224.311016204694</v>
       </c>
       <c r="AB6" t="n">
-        <v>1537.068029181778</v>
+        <v>1675.156345161266</v>
       </c>
       <c r="AC6" t="n">
-        <v>1390.372413765197</v>
+        <v>1515.281774675771</v>
       </c>
       <c r="AD6" t="n">
-        <v>1123387.274399229</v>
+        <v>1224311.016204694</v>
       </c>
       <c r="AE6" t="n">
-        <v>1537068.029181778</v>
+        <v>1675156.345161266</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.383109450687021e-06</v>
+        <v>2.024820204676568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.73111979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1390372.413765197</v>
+        <v>1515281.774675771</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1051.201788047093</v>
+        <v>1143.708195806106</v>
       </c>
       <c r="AB7" t="n">
-        <v>1438.300662155886</v>
+        <v>1564.872010346448</v>
       </c>
       <c r="AC7" t="n">
-        <v>1301.031265627386</v>
+        <v>1415.522821990643</v>
       </c>
       <c r="AD7" t="n">
-        <v>1051201.788047093</v>
+        <v>1143708.195806106</v>
       </c>
       <c r="AE7" t="n">
-        <v>1438300.662155886</v>
+        <v>1564872.010346448</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416817914254743e-06</v>
+        <v>2.07416812726261e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.19075520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1301031.265627386</v>
+        <v>1415522.821990643</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1031.182261055672</v>
+        <v>1123.688668814684</v>
       </c>
       <c r="AB8" t="n">
-        <v>1410.909062127025</v>
+        <v>1537.480410317587</v>
       </c>
       <c r="AC8" t="n">
-        <v>1276.253881460927</v>
+        <v>1390.745437824185</v>
       </c>
       <c r="AD8" t="n">
-        <v>1031182.261055672</v>
+        <v>1123688.668814684</v>
       </c>
       <c r="AE8" t="n">
-        <v>1410909.062127025</v>
+        <v>1537480.410317587</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.422999409006416e-06</v>
+        <v>2.083217603037701e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.09309895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1276253.881460927</v>
+        <v>1390745.437824185</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1035.731966595075</v>
+        <v>1128.238374354088</v>
       </c>
       <c r="AB9" t="n">
-        <v>1417.134169964879</v>
+        <v>1543.705518155442</v>
       </c>
       <c r="AC9" t="n">
-        <v>1281.88487374373</v>
+        <v>1396.376430106988</v>
       </c>
       <c r="AD9" t="n">
-        <v>1035731.966595075</v>
+        <v>1128238.374354088</v>
       </c>
       <c r="AE9" t="n">
-        <v>1417134.16996488</v>
+        <v>1543705.518155442</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422613065584437e-06</v>
+        <v>2.082652010801758e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.099609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1281884.87374373</v>
+        <v>1396376.430106988</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1167.806655343473</v>
+        <v>1276.548697622831</v>
       </c>
       <c r="AB2" t="n">
-        <v>1597.844585834476</v>
+        <v>1746.630245441418</v>
       </c>
       <c r="AC2" t="n">
-        <v>1445.348541151393</v>
+        <v>1579.934306227434</v>
       </c>
       <c r="AD2" t="n">
-        <v>1167806.655343473</v>
+        <v>1276548.697622831</v>
       </c>
       <c r="AE2" t="n">
-        <v>1597844.585834475</v>
+        <v>1746630.245441418</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.27067602566795e-06</v>
+        <v>1.965892654954284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.61067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1445348.541151393</v>
+        <v>1579934.306227434</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>821.3840458166422</v>
+        <v>914.4209184269282</v>
       </c>
       <c r="AB3" t="n">
-        <v>1123.853888392959</v>
+        <v>1251.151041995491</v>
       </c>
       <c r="AC3" t="n">
-        <v>1016.594850623574</v>
+        <v>1131.742942548957</v>
       </c>
       <c r="AD3" t="n">
-        <v>821384.0458166422</v>
+        <v>914420.9184269282</v>
       </c>
       <c r="AE3" t="n">
-        <v>1123853.888392959</v>
+        <v>1251151.041995491</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511985917226096e-06</v>
+        <v>2.339228842778087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1016594.850623574</v>
+        <v>1131742.942548957</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>820.7443119977769</v>
+        <v>913.7811846080629</v>
       </c>
       <c r="AB4" t="n">
-        <v>1122.978576358923</v>
+        <v>1250.275729961455</v>
       </c>
       <c r="AC4" t="n">
-        <v>1015.803077141558</v>
+        <v>1130.951169066942</v>
       </c>
       <c r="AD4" t="n">
-        <v>820744.3119977769</v>
+        <v>913781.1846080628</v>
       </c>
       <c r="AE4" t="n">
-        <v>1122978.576358923</v>
+        <v>1250275.729961455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.515542516789034e-06</v>
+        <v>2.344731341303405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.14778645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1015803.077141558</v>
+        <v>1130951.169066942</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1663.1178267353</v>
+        <v>1791.290682722621</v>
       </c>
       <c r="AB2" t="n">
-        <v>2275.551182119447</v>
+        <v>2450.922938268625</v>
       </c>
       <c r="AC2" t="n">
-        <v>2058.375771054109</v>
+        <v>2217.010292932216</v>
       </c>
       <c r="AD2" t="n">
-        <v>1663117.8267353</v>
+        <v>1791290.682722621</v>
       </c>
       <c r="AE2" t="n">
-        <v>2275551.182119447</v>
+        <v>2450922.938268625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.078278726866672e-06</v>
+        <v>1.629596136210149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.12630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2058375.771054109</v>
+        <v>2217010.292932216</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1083.664359770702</v>
+        <v>1187.85807056881</v>
       </c>
       <c r="AB3" t="n">
-        <v>1482.717384935716</v>
+        <v>1625.279816751789</v>
       </c>
       <c r="AC3" t="n">
-        <v>1341.208918724371</v>
+        <v>1470.165392135547</v>
       </c>
       <c r="AD3" t="n">
-        <v>1083664.359770702</v>
+        <v>1187858.07056881</v>
       </c>
       <c r="AE3" t="n">
-        <v>1482717.384935716</v>
+        <v>1625279.816751789</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.368624193959477e-06</v>
+        <v>2.068393489391233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.521484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1341208.91872437</v>
+        <v>1470165.392135547</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>913.5333144937664</v>
+        <v>1009.70555978013</v>
       </c>
       <c r="AB4" t="n">
-        <v>1249.936583135818</v>
+        <v>1381.523691956638</v>
       </c>
       <c r="AC4" t="n">
-        <v>1130.644389938347</v>
+        <v>1249.673009776976</v>
       </c>
       <c r="AD4" t="n">
-        <v>913533.3144937664</v>
+        <v>1009705.55978013</v>
       </c>
       <c r="AE4" t="n">
-        <v>1249936.583135817</v>
+        <v>1381523.691956638</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471832934215122e-06</v>
+        <v>2.224372236029821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.802734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1130644.389938347</v>
+        <v>1249673.009776976</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>889.3486285929681</v>
+        <v>985.5208738793314</v>
       </c>
       <c r="AB5" t="n">
-        <v>1216.846028933305</v>
+        <v>1348.433137754126</v>
       </c>
       <c r="AC5" t="n">
-        <v>1100.711951786038</v>
+        <v>1219.740571624667</v>
       </c>
       <c r="AD5" t="n">
-        <v>889348.6285929681</v>
+        <v>985520.8738793314</v>
       </c>
       <c r="AE5" t="n">
-        <v>1216846.028933305</v>
+        <v>1348433.137754126</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.487298779408276e-06</v>
+        <v>2.247745674587052e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.56510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1100711.951786038</v>
+        <v>1219740.571624667</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.8789856607332</v>
+        <v>956.972944742976</v>
       </c>
       <c r="AB2" t="n">
-        <v>1175.156119247646</v>
+        <v>1309.372601664018</v>
       </c>
       <c r="AC2" t="n">
-        <v>1063.000868568622</v>
+        <v>1184.407918277192</v>
       </c>
       <c r="AD2" t="n">
-        <v>858878.9856607332</v>
+        <v>956972.944742976</v>
       </c>
       <c r="AE2" t="n">
-        <v>1175156.119247646</v>
+        <v>1309372.601664018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441152554705232e-06</v>
+        <v>2.277724304963077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.283203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1063000.868568622</v>
+        <v>1184407.918277192</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>763.5816601171839</v>
+        <v>861.6755296908756</v>
       </c>
       <c r="AB3" t="n">
-        <v>1044.766114217678</v>
+        <v>1178.982474164502</v>
       </c>
       <c r="AC3" t="n">
-        <v>945.0551026151927</v>
+        <v>1066.462041542536</v>
       </c>
       <c r="AD3" t="n">
-        <v>763581.6601171839</v>
+        <v>861675.5296908756</v>
       </c>
       <c r="AE3" t="n">
-        <v>1044766.114217678</v>
+        <v>1178982.474164502</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52051388762065e-06</v>
+        <v>2.403153938533471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>945055.1026151928</v>
+        <v>1066462.041542536</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3257.10645642919</v>
+        <v>3434.893699929844</v>
       </c>
       <c r="AB2" t="n">
-        <v>4456.516747082159</v>
+        <v>4699.773097059391</v>
       </c>
       <c r="AC2" t="n">
-        <v>4031.193043501008</v>
+        <v>4251.233348848836</v>
       </c>
       <c r="AD2" t="n">
-        <v>3257106.45642919</v>
+        <v>3434893.699929845</v>
       </c>
       <c r="AE2" t="n">
-        <v>4456516.747082159</v>
+        <v>4699773.097059391</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.539725109826468e-07</v>
+        <v>1.0992061859755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4031193.043501008</v>
+        <v>4251233.348848836</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1724.261755827194</v>
+        <v>1842.815061615338</v>
       </c>
       <c r="AB3" t="n">
-        <v>2359.211003382749</v>
+        <v>2521.42086656481</v>
       </c>
       <c r="AC3" t="n">
-        <v>2134.051216393339</v>
+        <v>2280.779997896276</v>
       </c>
       <c r="AD3" t="n">
-        <v>1724261.755827194</v>
+        <v>1842815.061615338</v>
       </c>
       <c r="AE3" t="n">
-        <v>2359211.003382749</v>
+        <v>2521420.86656481</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10985289638743e-06</v>
+        <v>1.6180393203486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.076171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2134051.216393339</v>
+        <v>2280779.997896276</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1420.271329192045</v>
+        <v>1521.96161052988</v>
       </c>
       <c r="AB4" t="n">
-        <v>1943.277890549424</v>
+        <v>2082.415019734438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1757.814176083036</v>
+        <v>1883.672252938819</v>
       </c>
       <c r="AD4" t="n">
-        <v>1420271.329192045</v>
+        <v>1521961.61052988</v>
       </c>
       <c r="AE4" t="n">
-        <v>1943277.890549424</v>
+        <v>2082415.019734439</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244049857209783e-06</v>
+        <v>1.813683229544697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.04557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1757814.176083036</v>
+        <v>1883672.252938819</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1270.210441809381</v>
+        <v>1371.900633638665</v>
       </c>
       <c r="AB5" t="n">
-        <v>1737.957964213343</v>
+        <v>1877.094970928809</v>
       </c>
       <c r="AC5" t="n">
-        <v>1572.089695348144</v>
+        <v>1697.947661422701</v>
       </c>
       <c r="AD5" t="n">
-        <v>1270210.441809381</v>
+        <v>1371900.633638665</v>
       </c>
       <c r="AE5" t="n">
-        <v>1737957.964213343</v>
+        <v>1877094.970928809</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.316221403900263e-06</v>
+        <v>1.918901137914067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1572089.695348144</v>
+        <v>1697947.661422701</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1182.015234265958</v>
+        <v>1283.620085240671</v>
       </c>
       <c r="AB6" t="n">
-        <v>1617.285390354482</v>
+        <v>1756.30562994775</v>
       </c>
       <c r="AC6" t="n">
-        <v>1462.933942573351</v>
+        <v>1588.686285615969</v>
       </c>
       <c r="AD6" t="n">
-        <v>1182015.234265958</v>
+        <v>1283620.085240671</v>
       </c>
       <c r="AE6" t="n">
-        <v>1617285.390354482</v>
+        <v>1756305.62994775</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.358050271146603e-06</v>
+        <v>1.979882869953078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.94270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1462933.942573351</v>
+        <v>1588686.285615969</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1112.830663085196</v>
+        <v>1205.96142091602</v>
       </c>
       <c r="AB7" t="n">
-        <v>1522.624007857097</v>
+        <v>1650.049619360291</v>
       </c>
       <c r="AC7" t="n">
-        <v>1377.306909563432</v>
+        <v>1492.57119954773</v>
       </c>
       <c r="AD7" t="n">
-        <v>1112830.663085196</v>
+        <v>1205961.420916019</v>
       </c>
       <c r="AE7" t="n">
-        <v>1522624.007857097</v>
+        <v>1650049.619360291</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.390307315224444e-06</v>
+        <v>2.026909972234879e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.412109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1377306.909563432</v>
+        <v>1492571.19954773</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1063.130825566614</v>
+        <v>1156.261583397437</v>
       </c>
       <c r="AB8" t="n">
-        <v>1454.622497562087</v>
+        <v>1582.048109065281</v>
       </c>
       <c r="AC8" t="n">
-        <v>1315.795367970258</v>
+        <v>1431.059657954557</v>
       </c>
       <c r="AD8" t="n">
-        <v>1063130.825566614</v>
+        <v>1156261.583397437</v>
       </c>
       <c r="AE8" t="n">
-        <v>1454622.497562087</v>
+        <v>1582048.109065281</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.408015188086166e-06</v>
+        <v>2.052726037285719e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.12890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1315795.367970258</v>
+        <v>1431059.657954557</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1058.271449320258</v>
+        <v>1151.402207151081</v>
       </c>
       <c r="AB9" t="n">
-        <v>1447.973684601273</v>
+        <v>1575.399296104468</v>
       </c>
       <c r="AC9" t="n">
-        <v>1309.781108386757</v>
+        <v>1425.045398371055</v>
       </c>
       <c r="AD9" t="n">
-        <v>1058271.449320258</v>
+        <v>1151402.207151081</v>
       </c>
       <c r="AE9" t="n">
-        <v>1447973.684601273</v>
+        <v>1575399.296104467</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.411078171500086e-06</v>
+        <v>2.057191518808027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.080078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1309781.108386757</v>
+        <v>1425045.398371055</v>
       </c>
     </row>
   </sheetData>
@@ -8339,28 +8339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.5060344818882</v>
+        <v>835.080399380886</v>
       </c>
       <c r="AB2" t="n">
-        <v>1010.456536964939</v>
+        <v>1142.593843580032</v>
       </c>
       <c r="AC2" t="n">
-        <v>914.0199832616613</v>
+        <v>1033.546290789284</v>
       </c>
       <c r="AD2" t="n">
-        <v>738506.0344818882</v>
+        <v>835080.399380886</v>
       </c>
       <c r="AE2" t="n">
-        <v>1010456.536964939</v>
+        <v>1142593.843580032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508412867026722e-06</v>
+        <v>2.416831735656696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.72005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>914019.9832616613</v>
+        <v>1033546.290789284</v>
       </c>
     </row>
     <row r="3">
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.2132250886299</v>
+        <v>838.7875899876275</v>
       </c>
       <c r="AB3" t="n">
-        <v>1015.52887870279</v>
+        <v>1147.666185317883</v>
       </c>
       <c r="AC3" t="n">
-        <v>918.6082278231277</v>
+        <v>1038.134535350751</v>
       </c>
       <c r="AD3" t="n">
-        <v>742213.2250886299</v>
+        <v>838787.5899876275</v>
       </c>
       <c r="AE3" t="n">
-        <v>1015528.87870279</v>
+        <v>1147666.185317883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511620306294397e-06</v>
+        <v>2.421970806783548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.66796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>918608.2278231276</v>
+        <v>1038134.535350751</v>
       </c>
     </row>
   </sheetData>
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2246.604841791395</v>
+        <v>2394.632080386315</v>
       </c>
       <c r="AB2" t="n">
-        <v>3073.903857749723</v>
+        <v>3276.441256096172</v>
       </c>
       <c r="AC2" t="n">
-        <v>2780.534787817134</v>
+        <v>2963.742301128414</v>
       </c>
       <c r="AD2" t="n">
-        <v>2246604.841791395</v>
+        <v>2394632.080386315</v>
       </c>
       <c r="AE2" t="n">
-        <v>3073903.857749723</v>
+        <v>3276441.256096172</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.237825249345266e-07</v>
+        <v>1.371672197776119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.06510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2780534.787817134</v>
+        <v>2963742.301128414</v>
       </c>
     </row>
     <row r="3">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1355.222040576645</v>
+        <v>1462.168555916272</v>
       </c>
       <c r="AB3" t="n">
-        <v>1854.274584093758</v>
+        <v>2000.603524528703</v>
       </c>
       <c r="AC3" t="n">
-        <v>1677.305220278573</v>
+        <v>1809.668732012364</v>
       </c>
       <c r="AD3" t="n">
-        <v>1355222.040576645</v>
+        <v>1462168.555916272</v>
       </c>
       <c r="AE3" t="n">
-        <v>1854274.584093758</v>
+        <v>2000603.524528702</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.245310192505727e-06</v>
+        <v>1.849090367658123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.01236979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1677305.220278573</v>
+        <v>1809668.732012364</v>
       </c>
     </row>
     <row r="4">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1135.199966463033</v>
+        <v>1242.061051439537</v>
       </c>
       <c r="AB4" t="n">
-        <v>1553.230675602668</v>
+        <v>1699.442726445867</v>
       </c>
       <c r="AC4" t="n">
-        <v>1404.992519896094</v>
+        <v>1537.25029781672</v>
       </c>
       <c r="AD4" t="n">
-        <v>1135199.966463033</v>
+        <v>1242061.051439537</v>
       </c>
       <c r="AE4" t="n">
-        <v>1553230.675602668</v>
+        <v>1699442.726445867</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363034497902425e-06</v>
+        <v>2.023892501663201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.76627604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1404992.519896094</v>
+        <v>1537250.29781672</v>
       </c>
     </row>
     <row r="5">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1019.757781786829</v>
+        <v>1118.470994795932</v>
       </c>
       <c r="AB5" t="n">
-        <v>1395.277585578941</v>
+        <v>1530.341358537599</v>
       </c>
       <c r="AC5" t="n">
-        <v>1262.114251095677</v>
+        <v>1384.287727126357</v>
       </c>
       <c r="AD5" t="n">
-        <v>1019757.781786829</v>
+        <v>1118470.994795932</v>
       </c>
       <c r="AE5" t="n">
-        <v>1395277.585578941</v>
+        <v>1530341.358537599</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.425230348175406e-06</v>
+        <v>2.11624358683072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.72786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1262114.251095677</v>
+        <v>1384287.727126357</v>
       </c>
     </row>
     <row r="6">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>962.4357778753649</v>
+        <v>1052.915867571046</v>
       </c>
       <c r="AB6" t="n">
-        <v>1316.847090958941</v>
+        <v>1440.64594138041</v>
       </c>
       <c r="AC6" t="n">
-        <v>1191.169052804319</v>
+        <v>1303.152714694341</v>
       </c>
       <c r="AD6" t="n">
-        <v>962435.7778753649</v>
+        <v>1052915.867571046</v>
       </c>
       <c r="AE6" t="n">
-        <v>1316847.090958941</v>
+        <v>1440645.94138041</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.452795549016391e-06</v>
+        <v>2.157173587776965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.29817708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1191169.052804319</v>
+        <v>1303152.714694341</v>
       </c>
     </row>
     <row r="7">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>965.7497661633313</v>
+        <v>1056.229855859013</v>
       </c>
       <c r="AB7" t="n">
-        <v>1321.381435937382</v>
+        <v>1445.18028635885</v>
       </c>
       <c r="AC7" t="n">
-        <v>1195.270646262011</v>
+        <v>1307.254308152032</v>
       </c>
       <c r="AD7" t="n">
-        <v>965749.7661633313</v>
+        <v>1056229.855859013</v>
       </c>
       <c r="AE7" t="n">
-        <v>1321381.435937382</v>
+        <v>1445180.28635885</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.453492142539448e-06</v>
+        <v>2.15820791993084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.28841145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1195270.646262011</v>
+        <v>1307254.308152032</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2712.056115592327</v>
+        <v>2870.782480557594</v>
       </c>
       <c r="AB2" t="n">
-        <v>3710.75482482516</v>
+        <v>3927.93123988366</v>
       </c>
       <c r="AC2" t="n">
-        <v>3356.605592420813</v>
+        <v>3553.054995235134</v>
       </c>
       <c r="AD2" t="n">
-        <v>2712056.115592327</v>
+        <v>2870782.480557594</v>
       </c>
       <c r="AE2" t="n">
-        <v>3710754.82482516</v>
+        <v>3927931.23988366</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.346279676873877e-07</v>
+        <v>1.227272417967536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3356605.592420813</v>
+        <v>3553054.995235134</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1524.968351898146</v>
+        <v>1641.902096746629</v>
       </c>
       <c r="AB3" t="n">
-        <v>2086.528975922568</v>
+        <v>2246.522884376997</v>
       </c>
       <c r="AC3" t="n">
-        <v>1887.393578922328</v>
+        <v>2032.117893306727</v>
       </c>
       <c r="AD3" t="n">
-        <v>1524968.351898147</v>
+        <v>1641902.096746629</v>
       </c>
       <c r="AE3" t="n">
-        <v>2086528.975922568</v>
+        <v>2246522.884376997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.175791899806333e-06</v>
+        <v>1.728934356106369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1887393.578922328</v>
+        <v>2032117.893306727</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1279.084536716319</v>
+        <v>1379.301358830059</v>
       </c>
       <c r="AB4" t="n">
-        <v>1750.099892362454</v>
+        <v>1887.220969632627</v>
       </c>
       <c r="AC4" t="n">
-        <v>1583.072814916006</v>
+        <v>1707.107249022155</v>
       </c>
       <c r="AD4" t="n">
-        <v>1279084.536716319</v>
+        <v>1379301.358830059</v>
       </c>
       <c r="AE4" t="n">
-        <v>1750099.892362454</v>
+        <v>1887220.969632627</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.300011062286909e-06</v>
+        <v>1.911591489341257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1583072.814916006</v>
+        <v>1707107.249022155</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1152.269129032328</v>
+        <v>1252.400610291496</v>
       </c>
       <c r="AB5" t="n">
-        <v>1576.585456868284</v>
+        <v>1713.58976701626</v>
       </c>
       <c r="AC5" t="n">
-        <v>1426.118353616361</v>
+        <v>1550.047164690571</v>
       </c>
       <c r="AD5" t="n">
-        <v>1152269.129032328</v>
+        <v>1252400.610291496</v>
       </c>
       <c r="AE5" t="n">
-        <v>1576585.456868284</v>
+        <v>1713589.76701626</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.367970839562389e-06</v>
+        <v>2.011522432720156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1426118.353616361</v>
+        <v>1550047.164690571</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1061.623601225843</v>
+        <v>1161.840333831032</v>
       </c>
       <c r="AB6" t="n">
-        <v>1452.560246724999</v>
+        <v>1589.681201525625</v>
       </c>
       <c r="AC6" t="n">
-        <v>1313.929935458675</v>
+        <v>1437.964258783597</v>
       </c>
       <c r="AD6" t="n">
-        <v>1061623.601225843</v>
+        <v>1161840.333831032</v>
       </c>
       <c r="AE6" t="n">
-        <v>1452560.246724999</v>
+        <v>1589681.201525625</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410189754283024e-06</v>
+        <v>2.073602918348654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.50651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1313929.935458675</v>
+        <v>1437964.258783597</v>
       </c>
     </row>
     <row r="7">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1008.892523156793</v>
+        <v>1100.750839148886</v>
       </c>
       <c r="AB7" t="n">
-        <v>1380.411259379944</v>
+        <v>1506.095859823216</v>
       </c>
       <c r="AC7" t="n">
-        <v>1248.666746204093</v>
+        <v>1362.356184780503</v>
       </c>
       <c r="AD7" t="n">
-        <v>1008892.523156793</v>
+        <v>1100750.839148886</v>
       </c>
       <c r="AE7" t="n">
-        <v>1380411.259379944</v>
+        <v>1506095.859823216</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.433785544958299e-06</v>
+        <v>2.108299171286521e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.138671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1248666.746204093</v>
+        <v>1362356.184780503</v>
       </c>
     </row>
     <row r="8">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1010.383321786675</v>
+        <v>1102.241637778768</v>
       </c>
       <c r="AB8" t="n">
-        <v>1382.451035834743</v>
+        <v>1508.135636278015</v>
       </c>
       <c r="AC8" t="n">
-        <v>1250.51184925689</v>
+        <v>1364.201287833301</v>
       </c>
       <c r="AD8" t="n">
-        <v>1010383.321786675</v>
+        <v>1102241.637778768</v>
       </c>
       <c r="AE8" t="n">
-        <v>1382451.035834743</v>
+        <v>1508135.636278016</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.433005518820273e-06</v>
+        <v>2.107152187718327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.1484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1250511.84925689</v>
+        <v>1364201.287833301</v>
       </c>
     </row>
   </sheetData>
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3913.58170865444</v>
+        <v>4110.797006245419</v>
       </c>
       <c r="AB2" t="n">
-        <v>5354.735148820915</v>
+        <v>5624.573819509786</v>
       </c>
       <c r="AC2" t="n">
-        <v>4843.686741635228</v>
+        <v>5087.772388314494</v>
       </c>
       <c r="AD2" t="n">
-        <v>3913581.70865444</v>
+        <v>4110797.006245419</v>
       </c>
       <c r="AE2" t="n">
-        <v>5354735.148820915</v>
+        <v>5624573.819509786</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.802444635220913e-07</v>
+        <v>9.841589876351454e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.03255208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4843686.741635228</v>
+        <v>5087772.388314495</v>
       </c>
     </row>
     <row r="3">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1924.02274183517</v>
+        <v>2052.582077759515</v>
       </c>
       <c r="AB3" t="n">
-        <v>2632.532797271585</v>
+        <v>2808.433352320892</v>
       </c>
       <c r="AC3" t="n">
-        <v>2381.287561882971</v>
+        <v>2540.400414836352</v>
       </c>
       <c r="AD3" t="n">
-        <v>1924022.74183517</v>
+        <v>2052582.077759515</v>
       </c>
       <c r="AE3" t="n">
-        <v>2632532.797271586</v>
+        <v>2808433.352320892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049447428435921e-06</v>
+        <v>1.518311686651841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2381287.561882971</v>
+        <v>2540400.414836351</v>
       </c>
     </row>
     <row r="4">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1558.285355090488</v>
+        <v>1669.851292798768</v>
       </c>
       <c r="AB4" t="n">
-        <v>2132.114769532774</v>
+        <v>2284.76420744704</v>
       </c>
       <c r="AC4" t="n">
-        <v>1928.628728370439</v>
+        <v>2066.709518174999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1558285.355090488</v>
+        <v>1669851.292798768</v>
       </c>
       <c r="AE4" t="n">
-        <v>2132114.769532774</v>
+        <v>2284764.20744704</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19061603597371e-06</v>
+        <v>1.722550546841757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.732421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1928628.728370439</v>
+        <v>2066709.518174999</v>
       </c>
     </row>
     <row r="5">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1401.862286650512</v>
+        <v>1504.760977804442</v>
       </c>
       <c r="AB5" t="n">
-        <v>1918.089826394461</v>
+        <v>2058.880355201134</v>
       </c>
       <c r="AC5" t="n">
-        <v>1735.030025419352</v>
+        <v>1862.383703757464</v>
       </c>
       <c r="AD5" t="n">
-        <v>1401862.286650512</v>
+        <v>1504760.977804442</v>
       </c>
       <c r="AE5" t="n">
-        <v>1918089.826394461</v>
+        <v>2058880.355201134</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265623622778788e-06</v>
+        <v>1.831069461222667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.20572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1735030.025419352</v>
+        <v>1862383.703757464</v>
       </c>
     </row>
     <row r="6">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1302.90611618808</v>
+        <v>1405.719466487438</v>
       </c>
       <c r="AB6" t="n">
-        <v>1782.693628329632</v>
+        <v>1923.367390014108</v>
       </c>
       <c r="AC6" t="n">
-        <v>1612.555850468073</v>
+        <v>1739.803905774247</v>
       </c>
       <c r="AD6" t="n">
-        <v>1302906.116188081</v>
+        <v>1405719.466487438</v>
       </c>
       <c r="AE6" t="n">
-        <v>1782693.628329632</v>
+        <v>1923367.390014108</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.311738701241133e-06</v>
+        <v>1.897787488884706e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.35611979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1612555.850468073</v>
+        <v>1739803.905774247</v>
       </c>
     </row>
     <row r="7">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1226.294412205946</v>
+        <v>1329.193013851325</v>
       </c>
       <c r="AB7" t="n">
-        <v>1677.870115071436</v>
+        <v>1818.660521408561</v>
       </c>
       <c r="AC7" t="n">
-        <v>1517.736546194514</v>
+        <v>1645.0901137514</v>
       </c>
       <c r="AD7" t="n">
-        <v>1226294.412205946</v>
+        <v>1329193.013851325</v>
       </c>
       <c r="AE7" t="n">
-        <v>1677870.115071435</v>
+        <v>1818660.521408561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.3444898181899e-06</v>
+        <v>1.945170904448767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1517736.546194514</v>
+        <v>1645090.1137514</v>
       </c>
     </row>
     <row r="8">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1157.323321845583</v>
+        <v>1251.640017791184</v>
       </c>
       <c r="AB8" t="n">
-        <v>1583.50082645063</v>
+        <v>1712.549090802359</v>
       </c>
       <c r="AC8" t="n">
-        <v>1432.373730031549</v>
+        <v>1549.105809153927</v>
       </c>
       <c r="AD8" t="n">
-        <v>1157323.321845583</v>
+        <v>1251640.017791184</v>
       </c>
       <c r="AE8" t="n">
-        <v>1583500.82645063</v>
+        <v>1712549.090802359</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.376017473873339e-06</v>
+        <v>1.990784249891182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.26236979166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1432373.730031549</v>
+        <v>1549105.809153927</v>
       </c>
     </row>
     <row r="9">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1120.970637002739</v>
+        <v>1215.287332948339</v>
       </c>
       <c r="AB9" t="n">
-        <v>1533.761479281383</v>
+        <v>1662.809743633112</v>
       </c>
       <c r="AC9" t="n">
-        <v>1387.381436346523</v>
+        <v>1504.1135154689</v>
       </c>
       <c r="AD9" t="n">
-        <v>1120970.637002739</v>
+        <v>1215287.332948339</v>
       </c>
       <c r="AE9" t="n">
-        <v>1533761.479281383</v>
+        <v>1662809.743633112</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.385711051590934e-06</v>
+        <v>2.004808651624223e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1387381.436346523</v>
+        <v>1504113.5154689</v>
       </c>
     </row>
     <row r="10">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1105.132739997085</v>
+        <v>1199.449435942685</v>
       </c>
       <c r="AB10" t="n">
-        <v>1512.091369879544</v>
+        <v>1641.139634231274</v>
       </c>
       <c r="AC10" t="n">
-        <v>1367.779491771807</v>
+        <v>1484.511570894183</v>
       </c>
       <c r="AD10" t="n">
-        <v>1105132.739997085</v>
+        <v>1199449.435942685</v>
       </c>
       <c r="AE10" t="n">
-        <v>1512091.369879544</v>
+        <v>1641139.634231274</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.391640133107521e-06</v>
+        <v>2.013386683752199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.01497395833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1367779.491771806</v>
+        <v>1484511.570894184</v>
       </c>
     </row>
     <row r="11">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1109.406146770475</v>
+        <v>1203.722842716075</v>
       </c>
       <c r="AB11" t="n">
-        <v>1517.938433556297</v>
+        <v>1646.986697908027</v>
       </c>
       <c r="AC11" t="n">
-        <v>1373.068519897656</v>
+        <v>1489.800599020033</v>
       </c>
       <c r="AD11" t="n">
-        <v>1109406.146770475</v>
+        <v>1203722.842716075</v>
       </c>
       <c r="AE11" t="n">
-        <v>1517938.433556297</v>
+        <v>1646986.697908027</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.39126368348742e-06</v>
+        <v>2.012842046791692e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.021484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1373068.519897656</v>
+        <v>1489800.599020033</v>
       </c>
     </row>
   </sheetData>
@@ -11753,28 +11753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1843.931162751485</v>
+        <v>1981.303986660703</v>
       </c>
       <c r="AB2" t="n">
-        <v>2522.947965378194</v>
+        <v>2710.90752351205</v>
       </c>
       <c r="AC2" t="n">
-        <v>2282.161352542207</v>
+        <v>2452.182314250665</v>
       </c>
       <c r="AD2" t="n">
-        <v>1843931.162751485</v>
+        <v>1981303.986660703</v>
       </c>
       <c r="AE2" t="n">
-        <v>2522947.965378194</v>
+        <v>2710907.523512051</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02303939221509e-06</v>
+        <v>1.536282514840926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2282161.352542207</v>
+        <v>2452182.314250665</v>
       </c>
     </row>
     <row r="3">
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1178.019559798885</v>
+        <v>1275.169360105823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1611.818332271915</v>
+        <v>1744.74297499857</v>
       </c>
       <c r="AC3" t="n">
-        <v>1457.98865284112</v>
+        <v>1578.227154226851</v>
       </c>
       <c r="AD3" t="n">
-        <v>1178019.559798884</v>
+        <v>1275169.360105823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1611818.332271915</v>
+        <v>1744742.97499857</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.32431064635168e-06</v>
+        <v>1.988696921828814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1457988.65284112</v>
+        <v>1578227.154226851</v>
       </c>
     </row>
     <row r="4">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>996.6377905600943</v>
+        <v>1093.616909157889</v>
       </c>
       <c r="AB4" t="n">
-        <v>1363.643793600496</v>
+        <v>1496.334902082756</v>
       </c>
       <c r="AC4" t="n">
-        <v>1233.499543825349</v>
+        <v>1353.526799147202</v>
       </c>
       <c r="AD4" t="n">
-        <v>996637.7905600943</v>
+        <v>1093616.909157889</v>
       </c>
       <c r="AE4" t="n">
-        <v>1363643.793600496</v>
+        <v>1496334.902082756</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432132970829763e-06</v>
+        <v>2.150612047547021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.14453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1233499.543825349</v>
+        <v>1353526.799147202</v>
       </c>
     </row>
     <row r="5">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>913.2479526990178</v>
+        <v>1010.141730442241</v>
       </c>
       <c r="AB5" t="n">
-        <v>1249.546138538969</v>
+        <v>1382.120479899031</v>
       </c>
       <c r="AC5" t="n">
-        <v>1130.291208825829</v>
+        <v>1250.212841115744</v>
       </c>
       <c r="AD5" t="n">
-        <v>913247.9526990178</v>
+        <v>1010141.730442241</v>
       </c>
       <c r="AE5" t="n">
-        <v>1249546.138538969</v>
+        <v>1382120.479899031</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.475608072389859e-06</v>
+        <v>2.215897938653418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.4609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1130291.208825829</v>
+        <v>1250212.841115744</v>
       </c>
     </row>
     <row r="6">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>916.4672590076766</v>
+        <v>1013.3610367509</v>
       </c>
       <c r="AB6" t="n">
-        <v>1253.950935456246</v>
+        <v>1386.525276816308</v>
       </c>
       <c r="AC6" t="n">
-        <v>1134.275618107493</v>
+        <v>1254.197250397408</v>
       </c>
       <c r="AD6" t="n">
-        <v>916467.2590076766</v>
+        <v>1013361.0367509</v>
       </c>
       <c r="AE6" t="n">
-        <v>1253950.935456246</v>
+        <v>1386525.276816308</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.476626224651219e-06</v>
+        <v>2.217426882239048e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.44466145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1134275.618107493</v>
+        <v>1254197.250397408</v>
       </c>
     </row>
   </sheetData>
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1323.865647059565</v>
+        <v>1441.6531860862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1811.371383137239</v>
+        <v>1972.533490452958</v>
       </c>
       <c r="AC2" t="n">
-        <v>1638.496640606323</v>
+        <v>1784.277662592268</v>
       </c>
       <c r="AD2" t="n">
-        <v>1323865.647059565</v>
+        <v>1441653.1860862</v>
       </c>
       <c r="AE2" t="n">
-        <v>1811371.383137239</v>
+        <v>1972533.490452958</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.200785451257035e-06</v>
+        <v>1.841700781969954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1638496.640606323</v>
+        <v>1784277.662592268</v>
       </c>
     </row>
     <row r="3">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>902.7556871937539</v>
+        <v>997.0539910987191</v>
       </c>
       <c r="AB3" t="n">
-        <v>1235.190157988581</v>
+        <v>1364.213257538914</v>
       </c>
       <c r="AC3" t="n">
-        <v>1117.305342910425</v>
+        <v>1234.014658924732</v>
       </c>
       <c r="AD3" t="n">
-        <v>902755.6871937539</v>
+        <v>997053.9910987191</v>
       </c>
       <c r="AE3" t="n">
-        <v>1235190.157988581</v>
+        <v>1364213.257538914</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464444931192116e-06</v>
+        <v>2.246087652132232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1117305.342910425</v>
+        <v>1234014.658924732</v>
       </c>
     </row>
     <row r="4">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>836.0290260196392</v>
+        <v>930.2419890700329</v>
       </c>
       <c r="AB4" t="n">
-        <v>1143.891796397628</v>
+        <v>1272.798128825763</v>
       </c>
       <c r="AC4" t="n">
-        <v>1034.720368811657</v>
+        <v>1151.324061794025</v>
       </c>
       <c r="AD4" t="n">
-        <v>836029.0260196392</v>
+        <v>930241.989070033</v>
       </c>
       <c r="AE4" t="n">
-        <v>1143891.796397628</v>
+        <v>1272798.128825763</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.508458882991415e-06</v>
+        <v>2.313593907609844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.88736979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1034720.368811657</v>
+        <v>1151324.061794025</v>
       </c>
     </row>
   </sheetData>
@@ -22812,28 +22812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1014.797389390518</v>
+        <v>1121.897097596634</v>
       </c>
       <c r="AB2" t="n">
-        <v>1388.49055786524</v>
+        <v>1535.029103538506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1255.974967781318</v>
+        <v>1388.528080323669</v>
       </c>
       <c r="AD2" t="n">
-        <v>1014797.389390518</v>
+        <v>1121897.097596633</v>
       </c>
       <c r="AE2" t="n">
-        <v>1388490.55786524</v>
+        <v>1535029.103538506</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.349236003637322e-06</v>
+        <v>2.10815464150993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.47135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1255974.967781318</v>
+        <v>1388528.080323668</v>
       </c>
     </row>
     <row r="3">
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>789.6265240766276</v>
+        <v>881.4750529571324</v>
       </c>
       <c r="AB3" t="n">
-        <v>1080.401846105293</v>
+        <v>1206.073055390713</v>
       </c>
       <c r="AC3" t="n">
-        <v>977.2898102665175</v>
+        <v>1090.967135718387</v>
       </c>
       <c r="AD3" t="n">
-        <v>789626.5240766276</v>
+        <v>881475.0529571325</v>
       </c>
       <c r="AE3" t="n">
-        <v>1080401.846105293</v>
+        <v>1206073.055390713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.521264142660198e-06</v>
+        <v>2.376945215415246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>977289.8102665176</v>
+        <v>1090967.135718387</v>
       </c>
     </row>
   </sheetData>
@@ -23215,28 +23215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>712.9940923055522</v>
+        <v>814.9079968247146</v>
       </c>
       <c r="AB2" t="n">
-        <v>975.5499721718214</v>
+        <v>1114.993072459086</v>
       </c>
       <c r="AC2" t="n">
-        <v>882.4448520207275</v>
+        <v>1008.579698526196</v>
       </c>
       <c r="AD2" t="n">
-        <v>712994.0923055522</v>
+        <v>814907.9968247146</v>
       </c>
       <c r="AE2" t="n">
-        <v>975549.9721718214</v>
+        <v>1114993.072459086</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476991610931789e-06</v>
+        <v>2.407017977117996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.95377604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>882444.8520207275</v>
+        <v>1008579.698526196</v>
       </c>
     </row>
   </sheetData>
@@ -23512,28 +23512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2464.760132127366</v>
+        <v>2622.150916217406</v>
       </c>
       <c r="AB2" t="n">
-        <v>3372.393550319575</v>
+        <v>3587.742564702919</v>
       </c>
       <c r="AC2" t="n">
-        <v>3050.537043061023</v>
+        <v>3245.333449755852</v>
       </c>
       <c r="AD2" t="n">
-        <v>2464760.132127366</v>
+        <v>2622150.916217406</v>
       </c>
       <c r="AE2" t="n">
-        <v>3372393.550319575</v>
+        <v>3587742.564702919</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.784115424843878e-07</v>
+        <v>1.297748351553522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.494140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3050537.043061023</v>
+        <v>3245333.449755852</v>
       </c>
     </row>
     <row r="3">
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1438.183894560416</v>
+        <v>1554.088700454349</v>
       </c>
       <c r="AB3" t="n">
-        <v>1967.78665273304</v>
+        <v>2126.372721516273</v>
       </c>
       <c r="AC3" t="n">
-        <v>1779.983856402112</v>
+        <v>1923.434693357618</v>
       </c>
       <c r="AD3" t="n">
-        <v>1438183.894560416</v>
+        <v>1554088.700454349</v>
       </c>
       <c r="AE3" t="n">
-        <v>1967786.652733041</v>
+        <v>2126372.721516273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.210376263304441e-06</v>
+        <v>1.788186657953401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1779983.856402112</v>
+        <v>1923434.693357618</v>
       </c>
     </row>
     <row r="4">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1211.247548236754</v>
+        <v>1310.728644561388</v>
       </c>
       <c r="AB4" t="n">
-        <v>1657.282331967999</v>
+        <v>1793.396756755587</v>
       </c>
       <c r="AC4" t="n">
-        <v>1499.113632215334</v>
+        <v>1622.23748733899</v>
       </c>
       <c r="AD4" t="n">
-        <v>1211247.548236754</v>
+        <v>1310728.644561388</v>
       </c>
       <c r="AE4" t="n">
-        <v>1657282.331967999</v>
+        <v>1793396.756755587</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.331010135450559e-06</v>
+        <v>1.966408825066973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.08528645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1499113.632215334</v>
+        <v>1622237.48733899</v>
       </c>
     </row>
     <row r="5">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1082.580716465385</v>
+        <v>1182.061723281467</v>
       </c>
       <c r="AB5" t="n">
-        <v>1481.234696358412</v>
+        <v>1617.348998676451</v>
       </c>
       <c r="AC5" t="n">
-        <v>1339.867735863917</v>
+        <v>1462.991480206347</v>
       </c>
       <c r="AD5" t="n">
-        <v>1082580.716465384</v>
+        <v>1182061.723281467</v>
       </c>
       <c r="AE5" t="n">
-        <v>1481234.696358412</v>
+        <v>1617348.998676451</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.395512328312361e-06</v>
+        <v>2.061703126666475e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.97200520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1339867.735863918</v>
+        <v>1462991.480206347</v>
       </c>
     </row>
     <row r="6">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1002.065969077595</v>
+        <v>1093.249869763008</v>
       </c>
       <c r="AB6" t="n">
-        <v>1371.070866922476</v>
+        <v>1495.832702590044</v>
       </c>
       <c r="AC6" t="n">
-        <v>1240.217787693442</v>
+        <v>1353.072528869233</v>
       </c>
       <c r="AD6" t="n">
-        <v>1002065.969077595</v>
+        <v>1093249.869763008</v>
       </c>
       <c r="AE6" t="n">
-        <v>1371070.866922476</v>
+        <v>1495832.702590044</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43677403641785e-06</v>
+        <v>2.122662382193484e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.31119791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1240217.787693442</v>
+        <v>1353072.528869233</v>
       </c>
     </row>
     <row r="7">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>987.193658059967</v>
+        <v>1078.377558745379</v>
       </c>
       <c r="AB7" t="n">
-        <v>1350.721914868101</v>
+        <v>1475.48375053567</v>
       </c>
       <c r="AC7" t="n">
-        <v>1221.810911063203</v>
+        <v>1334.665652238995</v>
       </c>
       <c r="AD7" t="n">
-        <v>987193.658059967</v>
+        <v>1078377.55874538</v>
       </c>
       <c r="AE7" t="n">
-        <v>1350721.914868101</v>
+        <v>1475483.75053567</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.442288727715958e-06</v>
+        <v>2.130809681261534e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1221810.911063203</v>
+        <v>1334665.652238995</v>
       </c>
     </row>
     <row r="8">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>991.8519885520847</v>
+        <v>1083.035889237497</v>
       </c>
       <c r="AB8" t="n">
-        <v>1357.095648158454</v>
+        <v>1481.857483826022</v>
       </c>
       <c r="AC8" t="n">
-        <v>1227.576344193915</v>
+        <v>1340.431085369707</v>
       </c>
       <c r="AD8" t="n">
-        <v>991851.9885520847</v>
+        <v>1083035.889237497</v>
       </c>
       <c r="AE8" t="n">
-        <v>1357095.648158454</v>
+        <v>1481857.483826022</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.442091774455311e-06</v>
+        <v>2.130518706294818e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.22981770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1227576.344193915</v>
+        <v>1340431.085369707</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3570.945758787137</v>
+        <v>3758.412789082091</v>
       </c>
       <c r="AB2" t="n">
-        <v>4885.925526181172</v>
+        <v>5142.42618749242</v>
       </c>
       <c r="AC2" t="n">
-        <v>4419.619651401802</v>
+        <v>4651.640249598434</v>
       </c>
       <c r="AD2" t="n">
-        <v>3570945.758787137</v>
+        <v>3758412.789082091</v>
       </c>
       <c r="AE2" t="n">
-        <v>4885925.526181173</v>
+        <v>5142426.187492421</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.162690803402524e-07</v>
+        <v>1.040143765323061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4419619.651401802</v>
+        <v>4651640.249598434</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1818.770334261447</v>
+        <v>1946.619736017475</v>
       </c>
       <c r="AB3" t="n">
-        <v>2488.521809820711</v>
+        <v>2663.451001620841</v>
       </c>
       <c r="AC3" t="n">
-        <v>2251.020780953718</v>
+        <v>2409.254976203106</v>
       </c>
       <c r="AD3" t="n">
-        <v>1818770.334261447</v>
+        <v>1946619.736017475</v>
       </c>
       <c r="AE3" t="n">
-        <v>2488521.809820712</v>
+        <v>2663451.001620841</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078958590814609e-06</v>
+        <v>1.566830234727504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.62955729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2251020.780953718</v>
+        <v>2409254.976203106</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1488.341410011626</v>
+        <v>1599.04759474022</v>
       </c>
       <c r="AB4" t="n">
-        <v>2036.414378166797</v>
+        <v>2187.887464124633</v>
       </c>
       <c r="AC4" t="n">
-        <v>1842.061848040088</v>
+        <v>1979.078555267919</v>
       </c>
       <c r="AD4" t="n">
-        <v>1488341.410011626</v>
+        <v>1599047.59474022</v>
       </c>
       <c r="AE4" t="n">
-        <v>2036414.378166797</v>
+        <v>2187887.464124633</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21722091859094e-06</v>
+        <v>1.767610503153007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1842061.848040088</v>
+        <v>1979078.555267919</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1334.583460071344</v>
+        <v>1445.289555291388</v>
       </c>
       <c r="AB5" t="n">
-        <v>1826.035967736495</v>
+        <v>1977.508931224783</v>
       </c>
       <c r="AC5" t="n">
-        <v>1651.7616578333</v>
+        <v>1788.778254279905</v>
       </c>
       <c r="AD5" t="n">
-        <v>1334583.460071344</v>
+        <v>1445289.555291388</v>
       </c>
       <c r="AE5" t="n">
-        <v>1826035.967736495</v>
+        <v>1977508.931224783</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288582120023885e-06</v>
+        <v>1.871239028791977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1651761.657833301</v>
+        <v>1788778.254279905</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1245.7531473967</v>
+        <v>1347.930349284588</v>
       </c>
       <c r="AB6" t="n">
-        <v>1704.494415018234</v>
+        <v>1844.297770381249</v>
       </c>
       <c r="AC6" t="n">
-        <v>1541.81986032183</v>
+        <v>1668.28057966424</v>
       </c>
       <c r="AD6" t="n">
-        <v>1245753.1473967</v>
+        <v>1347930.349284588</v>
       </c>
       <c r="AE6" t="n">
-        <v>1704494.415018234</v>
+        <v>1844297.770381249</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.335650146500934e-06</v>
+        <v>1.939589758468744e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.12825520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1541819.86032183</v>
+        <v>1668280.57966424</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1168.848844961047</v>
+        <v>1271.111298194955</v>
       </c>
       <c r="AB7" t="n">
-        <v>1599.2705556474</v>
+        <v>1739.190555663064</v>
       </c>
       <c r="AC7" t="n">
-        <v>1446.638418406734</v>
+        <v>1573.204649999856</v>
       </c>
       <c r="AD7" t="n">
-        <v>1168848.844961047</v>
+        <v>1271111.298194955</v>
       </c>
       <c r="AE7" t="n">
-        <v>1599270.5556474</v>
+        <v>1739190.555663064</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.366870672127848e-06</v>
+        <v>1.984927238435793e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.59765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1446638.418406734</v>
+        <v>1573204.649999856</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1122.540265513246</v>
+        <v>1216.273825414999</v>
       </c>
       <c r="AB8" t="n">
-        <v>1535.909114256581</v>
+        <v>1664.159506146972</v>
       </c>
       <c r="AC8" t="n">
-        <v>1389.324104053913</v>
+        <v>1505.334458542841</v>
       </c>
       <c r="AD8" t="n">
-        <v>1122540.265513246</v>
+        <v>1216273.825414998</v>
       </c>
       <c r="AE8" t="n">
-        <v>1535909.114256581</v>
+        <v>1664159.506146972</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383667125124698e-06</v>
+        <v>2.009318527050284e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.32421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1389324.104053913</v>
+        <v>1505334.458542841</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1078.89211002865</v>
+        <v>1172.625669930403</v>
       </c>
       <c r="AB9" t="n">
-        <v>1476.187782301841</v>
+        <v>1604.438174192232</v>
       </c>
       <c r="AC9" t="n">
-        <v>1335.302492201518</v>
+        <v>1451.312846690445</v>
       </c>
       <c r="AD9" t="n">
-        <v>1078892.11002865</v>
+        <v>1172625.669930403</v>
       </c>
       <c r="AE9" t="n">
-        <v>1476187.782301841</v>
+        <v>1604438.174192232</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.401697215912277e-06</v>
+        <v>2.035501266240982e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.03776041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1335302.492201518</v>
+        <v>1451312.846690445</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1083.568980315021</v>
+        <v>1177.302540216774</v>
       </c>
       <c r="AB10" t="n">
-        <v>1482.586882556609</v>
+        <v>1610.837274446999</v>
       </c>
       <c r="AC10" t="n">
-        <v>1341.090871309164</v>
+        <v>1457.101225798091</v>
       </c>
       <c r="AD10" t="n">
-        <v>1083568.980315021</v>
+        <v>1177302.540216774</v>
       </c>
       <c r="AE10" t="n">
-        <v>1482586.882556609</v>
+        <v>1610837.274446999</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.401127844624248e-06</v>
+        <v>2.034674442898118e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.04752604166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1341090.871309164</v>
+        <v>1457101.225798091</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>702.0981243121388</v>
+        <v>808.7477430114836</v>
       </c>
       <c r="AB2" t="n">
-        <v>960.6416280670513</v>
+        <v>1106.564341420607</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.9593393533241</v>
+        <v>1000.955393748231</v>
       </c>
       <c r="AD2" t="n">
-        <v>702098.1243121388</v>
+        <v>808747.7430114837</v>
       </c>
       <c r="AE2" t="n">
-        <v>960641.6280670513</v>
+        <v>1106564.341420606</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.382496668621621e-06</v>
+        <v>2.304539578765436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>868959.3393533241</v>
+        <v>1000955.393748231</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1486.604215206974</v>
+        <v>1613.514189110884</v>
       </c>
       <c r="AB2" t="n">
-        <v>2034.037471595445</v>
+        <v>2207.681296763675</v>
       </c>
       <c r="AC2" t="n">
-        <v>1839.911790095896</v>
+        <v>1996.98329230071</v>
       </c>
       <c r="AD2" t="n">
-        <v>1486604.215206973</v>
+        <v>1613514.189110884</v>
       </c>
       <c r="AE2" t="n">
-        <v>2034037.471595445</v>
+        <v>2207681.296763675</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.136566222838845e-06</v>
+        <v>1.729747660563821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.931640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1839911.790095896</v>
+        <v>1996983.29230071</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000.36044228868</v>
+        <v>1095.58568265245</v>
       </c>
       <c r="AB3" t="n">
-        <v>1368.737289927349</v>
+        <v>1499.02866483417</v>
       </c>
       <c r="AC3" t="n">
-        <v>1238.106924011534</v>
+        <v>1355.963472962341</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000360.44228868</v>
+        <v>1095585.682652449</v>
       </c>
       <c r="AE3" t="n">
-        <v>1368737.289927349</v>
+        <v>1499028.66483417</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4134180779469e-06</v>
+        <v>2.151090332088746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.06901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1238106.924011534</v>
+        <v>1355963.472962341</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>863.4037129436027</v>
+        <v>958.6288637988216</v>
       </c>
       <c r="AB4" t="n">
-        <v>1181.347050732947</v>
+        <v>1311.638303170219</v>
       </c>
       <c r="AC4" t="n">
-        <v>1068.600946241993</v>
+        <v>1186.457384411573</v>
       </c>
       <c r="AD4" t="n">
-        <v>863403.7129436027</v>
+        <v>958628.8637988216</v>
       </c>
       <c r="AE4" t="n">
-        <v>1181347.050732947</v>
+        <v>1311638.303170219</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.49681852354004e-06</v>
+        <v>2.278018022491498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.72786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1068600.946241993</v>
+        <v>1186457.384411573</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>866.2545815548142</v>
+        <v>961.4797324100332</v>
       </c>
       <c r="AB5" t="n">
-        <v>1185.247734938254</v>
+        <v>1315.538987375525</v>
       </c>
       <c r="AC5" t="n">
-        <v>1072.12935462139</v>
+        <v>1189.98579279097</v>
       </c>
       <c r="AD5" t="n">
-        <v>866254.5815548142</v>
+        <v>961479.7324100332</v>
       </c>
       <c r="AE5" t="n">
-        <v>1185247.734938254</v>
+        <v>1315538.987375525</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4982816892522e-06</v>
+        <v>2.280244824077511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1072129.35462139</v>
+        <v>1189985.79279097</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2034.709504840776</v>
+        <v>2181.530803886195</v>
       </c>
       <c r="AB2" t="n">
-        <v>2783.979309571204</v>
+        <v>2984.866688223714</v>
       </c>
       <c r="AC2" t="n">
-        <v>2518.280231605229</v>
+        <v>2699.995200786351</v>
       </c>
       <c r="AD2" t="n">
-        <v>2034709.504840776</v>
+        <v>2181530.803886195</v>
       </c>
       <c r="AE2" t="n">
-        <v>2783979.309571204</v>
+        <v>2984866.688223714</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.719126995389592e-07</v>
+        <v>1.450978862796874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.701171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2518280.231605229</v>
+        <v>2699995.200786351</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1260.548441188279</v>
+        <v>1366.538723977093</v>
       </c>
       <c r="AB3" t="n">
-        <v>1724.737988706168</v>
+        <v>1869.758569579086</v>
       </c>
       <c r="AC3" t="n">
-        <v>1560.131415749022</v>
+        <v>1691.311435921092</v>
       </c>
       <c r="AD3" t="n">
-        <v>1260548.441188279</v>
+        <v>1366538.723977093</v>
       </c>
       <c r="AE3" t="n">
-        <v>1724737.988706168</v>
+        <v>1869758.569579086</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.284748043038972e-06</v>
+        <v>1.918014092575886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.49479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1560131.415749022</v>
+        <v>1691311.435921092</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1065.163439700889</v>
+        <v>1162.987501336671</v>
       </c>
       <c r="AB4" t="n">
-        <v>1457.403609893209</v>
+        <v>1591.250806716299</v>
       </c>
       <c r="AC4" t="n">
-        <v>1318.311054843814</v>
+        <v>1439.384063057828</v>
       </c>
       <c r="AD4" t="n">
-        <v>1065163.439700889</v>
+        <v>1162987.501336671</v>
       </c>
       <c r="AE4" t="n">
-        <v>1457403.609893209</v>
+        <v>1591250.806716299</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.397646484790987e-06</v>
+        <v>2.086561383605816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1318311.054843813</v>
+        <v>1439384.063057828</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>954.700330955631</v>
+        <v>1052.439051736842</v>
       </c>
       <c r="AB5" t="n">
-        <v>1306.263111219529</v>
+        <v>1439.993540920421</v>
       </c>
       <c r="AC5" t="n">
-        <v>1181.595193236527</v>
+        <v>1302.562578418603</v>
       </c>
       <c r="AD5" t="n">
-        <v>954700.330955631</v>
+        <v>1052439.051736841</v>
       </c>
       <c r="AE5" t="n">
-        <v>1306263.111219529</v>
+        <v>1439993.540920421</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.456007533111993e-06</v>
+        <v>2.173689216758543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.49674479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1181595.193236527</v>
+        <v>1302562.578418603</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>936.14905714982</v>
+        <v>1025.892238487143</v>
       </c>
       <c r="AB6" t="n">
-        <v>1280.880439973979</v>
+        <v>1403.671019869439</v>
       </c>
       <c r="AC6" t="n">
-        <v>1158.63500850985</v>
+        <v>1269.706627797749</v>
       </c>
       <c r="AD6" t="n">
-        <v>936149.05714982</v>
+        <v>1025892.238487143</v>
       </c>
       <c r="AE6" t="n">
-        <v>1280880.439973979</v>
+        <v>1403671.019869439</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466572895308037e-06</v>
+        <v>2.189462358967226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.333984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1158635.00850985</v>
+        <v>1269706.627797749</v>
       </c>
     </row>
   </sheetData>
